--- a/testIcomm/bao_cao.xlsx
+++ b/testIcomm/bao_cao.xlsx
@@ -107,292 +107,292 @@
     <t>145726986</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>true</t>
+    <t>Ảnh chưa qua chỉnh sửa!, Metadetect - Ảnh không nghi vấn chỉnh sửa!, Photoshop - Ảnh không nghi vấn chỉnh sửa!</t>
+  </si>
+  <si>
+    <t>thông tin tên, địa điểm định danh không khớp</t>
+  </si>
+  <si>
+    <t>HiepDV10_cmt_mt.JPEG</t>
+  </si>
+  <si>
+    <t>daovanhiep.humg@gmail.com</t>
+  </si>
+  <si>
+    <t>0972036071</t>
+  </si>
+  <si>
+    <t>Ơ</t>
+  </si>
+  <si>
+    <t>ĐÀO VĂN HIỆP</t>
+  </si>
+  <si>
+    <t>02/01/1990</t>
+  </si>
+  <si>
+    <t>16/03/2009</t>
+  </si>
+  <si>
+    <t>HẢI DƯƠNG</t>
+  </si>
+  <si>
+    <t>TÂN HƯƠNG, NINH GIANG, HẢI DƯƠNG</t>
+  </si>
+  <si>
+    <t>142434115</t>
+  </si>
+  <si>
+    <t>Ảnh chưa qua chỉnh sửa!, , Photoshop - Ảnh không nghi vấn chỉnh sửa!</t>
+  </si>
+  <si>
+    <t>hieudt28_cmt_mt.jpg</t>
+  </si>
+  <si>
+    <t>hieuboyfc@gmail.com</t>
+  </si>
+  <si>
+    <t>0793321897</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ĐỖ TRUNG HIẾU</t>
+  </si>
+  <si>
+    <t>21/03/1997</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>CỤC TRƯỞNG CỤC CẢNH SÁT ĐKQL CƯ TRÚ VÀ DLQG VỀ DÂN CƯ</t>
+  </si>
+  <si>
+    <t>HÙNG THẮNG, TIÊN LÃNG, HẢI PHÒNG</t>
+  </si>
+  <si>
+    <t>TỊNH HÀ, SƠN TỊNH, QUẢNG NGÃI</t>
+  </si>
+  <si>
+    <t>031097001824</t>
+  </si>
+  <si>
+    <t>hieund35_cmt_mt.jpg</t>
+  </si>
+  <si>
+    <t>tycuoihaychoimc@gmail.com</t>
+  </si>
+  <si>
+    <t>0981291686</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐÌNH HIẾU</t>
+  </si>
+  <si>
+    <t>10/09/1997</t>
+  </si>
+  <si>
+    <t>29/08/2014</t>
+  </si>
+  <si>
+    <t>QUẢNG NINH</t>
+  </si>
+  <si>
+    <t>KHU 9, HẢI HÒA, TP MÓNG CÁI, QUẢNG NINH</t>
+  </si>
+  <si>
+    <t>TRƯNG VƯƠNG, TP UÔNG BÍ, QUẢNG NINH</t>
+  </si>
+  <si>
+    <t>101289310</t>
+  </si>
+  <si>
+    <t>hoantm6_cmt_mt.jpg</t>
+  </si>
+  <si>
+    <t>ntmhoa6@gmail.com</t>
+  </si>
+  <si>
+    <t>0366605724</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ MAI HOA</t>
+  </si>
+  <si>
+    <t>24/01/1989</t>
+  </si>
+  <si>
+    <t>08/02/20</t>
+  </si>
+  <si>
+    <t>SƠN LA</t>
+  </si>
+  <si>
+    <t>TT VĨNH TRỤ, LÝ NHÂN, HÀ NAM</t>
+  </si>
+  <si>
+    <t>VĨNH TRỤ, LÝ NHÂN, HÀ NAM</t>
+  </si>
+  <si>
+    <t>168311724</t>
+  </si>
+  <si>
+    <t>Ảnh nghi vấn đã qua chỉnh sửa!, , Photoshop - Ảnh nghi vấn đã qua chỉnh sửa!</t>
+  </si>
+  <si>
+    <t>hoantt2_cmt_mt.jpg</t>
+  </si>
+  <si>
+    <t>thanhhoa18121980@gmail.com</t>
+  </si>
+  <si>
+    <t>0912206220</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THANH HÒA</t>
+  </si>
+  <si>
+    <t>18/12/1980</t>
+  </si>
+  <si>
+    <t>28/08/2009</t>
+  </si>
+  <si>
+    <t>TP HÀ NỘI</t>
+  </si>
+  <si>
+    <t>505A 4 1 TỔ80, DỊCH VỌNG, C GIẤY, HÀ NỘI</t>
+  </si>
+  <si>
+    <t>TRIỆU SƠN, THANH HÓA</t>
+  </si>
+  <si>
+    <t>013220332</t>
+  </si>
+  <si>
+    <t>ảnh khuôn mặt và thông tin không khớp</t>
+  </si>
+  <si>
+    <t>huelt15_cmt_mt.jpg</t>
+  </si>
+  <si>
+    <t>huelgt@gmail.com</t>
+  </si>
+  <si>
+    <t>0348603862</t>
+  </si>
+  <si>
+    <t>LƯƠNG THỊ HUỆ</t>
+  </si>
+  <si>
+    <t>06/08/1993</t>
+  </si>
+  <si>
+    <t>01/04/2008</t>
+  </si>
+  <si>
+    <t>NINH BÌNH</t>
+  </si>
+  <si>
+    <t>YÊN THÀNH, YÊN MÔ, NINH BÌNH</t>
+  </si>
+  <si>
+    <t>164493561</t>
+  </si>
+  <si>
+    <t>hungdx_cccd_mt.jpg</t>
+  </si>
+  <si>
+    <t>daoxuan18@gmail.com</t>
+  </si>
+  <si>
+    <t>0982920257</t>
+  </si>
+  <si>
+    <t>ĐÀO XUÂN HÙNG</t>
+  </si>
+  <si>
+    <t>21/03/1971</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>36/298/20 NGỌC LÂM, NGỌC LÂM, LONG BIÊN, HÀ NỘI</t>
+  </si>
+  <si>
+    <t>BÌNH THANH KIẾN XƯƠNG THIỆI BÌ 36/298/20</t>
+  </si>
+  <si>
+    <t>010071000069</t>
+  </si>
+  <si>
+    <t>HungNN28_cmt_mt.jpg</t>
+  </si>
+  <si>
+    <t>hungnn.hanu@gmail.com</t>
+  </si>
+  <si>
+    <t>0968864522</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC HƯNG</t>
+  </si>
+  <si>
+    <t>08/08/1994</t>
+  </si>
+  <si>
+    <t>02/10/2010</t>
+  </si>
+  <si>
+    <t>TP BẮC GIANG</t>
+  </si>
+  <si>
+    <t>TRẠI QUÂN, ĐỒNG KỲ, YÊN THẾ, BẮC GIANG</t>
+  </si>
+  <si>
+    <t>ĐỒNG KỲ, YÊN THẾ, BẮC GIANG</t>
+  </si>
+  <si>
+    <t>122115255</t>
+  </si>
+  <si>
+    <t>hungnn30_cccd_mt.jpg</t>
+  </si>
+  <si>
+    <t>nnhung1995tb@gmail.com</t>
+  </si>
+  <si>
+    <t>0908235382</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC HÙNG</t>
+  </si>
+  <si>
+    <t>01/11/1995</t>
+  </si>
+  <si>
+    <t>28/02/2017</t>
+  </si>
+  <si>
+    <t>TRẦN LÃM, THÀNH PHỐ THÁI BÌNH, THÁI BÌNH</t>
+  </si>
+  <si>
+    <t>034095003667</t>
   </si>
   <si>
     <t>Ảnh chưa qua chỉnh sửa!, Metadetect - Ảnh không nghi vấn chỉnh sửa!, Photoshop - Ảnh nghi vấn đã qua chỉnh sửa!</t>
-  </si>
-  <si>
-    <t>ảnh khuôn mặt và thông tin không khớp</t>
-  </si>
-  <si>
-    <t>HiepDV10_cmt_mt.JPEG</t>
-  </si>
-  <si>
-    <t>daovanhiep.humg@gmail.com</t>
-  </si>
-  <si>
-    <t>0972036071</t>
-  </si>
-  <si>
-    <t>Ơ</t>
-  </si>
-  <si>
-    <t>ĐÀO VĂN HIỆP</t>
-  </si>
-  <si>
-    <t>02/01/1990</t>
-  </si>
-  <si>
-    <t>16/03/2009</t>
-  </si>
-  <si>
-    <t>HẢI DƯƠNG</t>
-  </si>
-  <si>
-    <t>TÂN HƯƠNG, NINH GIANG, HẢI DƯƠNG</t>
-  </si>
-  <si>
-    <t>142434115</t>
-  </si>
-  <si>
-    <t>Ảnh chưa qua chỉnh sửa!, , Photoshop - Ảnh không nghi vấn chỉnh sửa!</t>
-  </si>
-  <si>
-    <t>hieudt28_cmt_mt.jpg</t>
-  </si>
-  <si>
-    <t>hieuboyfc@gmail.com</t>
-  </si>
-  <si>
-    <t>0793321897</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ĐỖ TRUNG HIẾU</t>
-  </si>
-  <si>
-    <t>21/03/1997</t>
-  </si>
-  <si>
-    <t>08/01/2015</t>
-  </si>
-  <si>
-    <t>CỤC TRƯỞNG CỤC CẢNH SÁT ĐKQL CƯ TRÚ VÀ DLQG VỀ DÂN CƯ</t>
-  </si>
-  <si>
-    <t>HÙNG THẮNG, TIÊN LÃNG, HẢI PHÒNG</t>
-  </si>
-  <si>
-    <t>TỊNH HÀ, SƠN TỊNH, QUẢNG NGÃI</t>
-  </si>
-  <si>
-    <t>031097001824</t>
-  </si>
-  <si>
-    <t>Ảnh chưa qua chỉnh sửa!, Metadetect - Ảnh không nghi vấn chỉnh sửa!, Photoshop - Ảnh không nghi vấn chỉnh sửa!</t>
-  </si>
-  <si>
-    <t>hieund35_cmt_mt.jpg</t>
-  </si>
-  <si>
-    <t>tycuoihaychoimc@gmail.com</t>
-  </si>
-  <si>
-    <t>0981291686</t>
-  </si>
-  <si>
-    <t>NGUYỄN ĐÌNH HIẾU</t>
-  </si>
-  <si>
-    <t>10/09/1997</t>
-  </si>
-  <si>
-    <t>29/08/2014</t>
-  </si>
-  <si>
-    <t>QUẢNG NINH</t>
-  </si>
-  <si>
-    <t>KHU 9, HẢI HÒA, TP MÓNG CÁI, QUẢNG NINH</t>
-  </si>
-  <si>
-    <t>TRƯNG VƯƠNG, TP UÔNG BÍ, QUẢNG NINH</t>
-  </si>
-  <si>
-    <t>101289310</t>
-  </si>
-  <si>
-    <t>thông tin tên, địa điểm định danh không khớp</t>
-  </si>
-  <si>
-    <t>hoantm6_cmt_mt.jpg</t>
-  </si>
-  <si>
-    <t>ntmhoa6@gmail.com</t>
-  </si>
-  <si>
-    <t>0366605724</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ MAI HOA</t>
-  </si>
-  <si>
-    <t>24/01/1989</t>
-  </si>
-  <si>
-    <t>08/02/20</t>
-  </si>
-  <si>
-    <t>SƠN LA</t>
-  </si>
-  <si>
-    <t>TT VĨNH TRỤ, LÝ NHÂN, HÀ NAM</t>
-  </si>
-  <si>
-    <t>VĨNH TRỤ, LÝ NHÂN, HÀ NAM</t>
-  </si>
-  <si>
-    <t>168311724</t>
-  </si>
-  <si>
-    <t>Ảnh nghi vấn đã qua chỉnh sửa!, , Photoshop - Ảnh nghi vấn đã qua chỉnh sửa!</t>
-  </si>
-  <si>
-    <t>hoantt2_cmt_mt.jpg</t>
-  </si>
-  <si>
-    <t>thanhhoa18121980@gmail.com</t>
-  </si>
-  <si>
-    <t>0912206220</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ THANH HÒA</t>
-  </si>
-  <si>
-    <t>18/12/1980</t>
-  </si>
-  <si>
-    <t>28/08/2009</t>
-  </si>
-  <si>
-    <t>TP HÀ NỘI</t>
-  </si>
-  <si>
-    <t>505A 4 1 TỔ80, DỊCH VỌNG, C GIẤY, HÀ NỘI</t>
-  </si>
-  <si>
-    <t>TRIỆU SƠN, THANH HÓA</t>
-  </si>
-  <si>
-    <t>013220332</t>
-  </si>
-  <si>
-    <t>huelt15_cmt_mt.jpg</t>
-  </si>
-  <si>
-    <t>huelgt@gmail.com</t>
-  </si>
-  <si>
-    <t>0348603862</t>
-  </si>
-  <si>
-    <t>LƯƠNG THỊ HUỆ</t>
-  </si>
-  <si>
-    <t>06/08/1993</t>
-  </si>
-  <si>
-    <t>01/04/2008</t>
-  </si>
-  <si>
-    <t>NINH BÌNH</t>
-  </si>
-  <si>
-    <t>YÊN THÀNH, YÊN MÔ, NINH BÌNH</t>
-  </si>
-  <si>
-    <t>164493561</t>
-  </si>
-  <si>
-    <t>hungdx_cccd_mt.jpg</t>
-  </si>
-  <si>
-    <t>daoxuan18@gmail.com</t>
-  </si>
-  <si>
-    <t>0982920257</t>
-  </si>
-  <si>
-    <t>ĐÀO XUÂN HÙNG</t>
-  </si>
-  <si>
-    <t>21/03/1971</t>
-  </si>
-  <si>
-    <t>04/05/2018</t>
-  </si>
-  <si>
-    <t>36/298/20 NGỌC LÂM, NGỌC LÂM, LONG BIÊN, HÀ NỘI</t>
-  </si>
-  <si>
-    <t>BÌNH THANH KIẾN XƯƠNG THIỆI BÌ 36/298/20</t>
-  </si>
-  <si>
-    <t>010071000069</t>
-  </si>
-  <si>
-    <t>HungNN28_cmt_mt.jpg</t>
-  </si>
-  <si>
-    <t>hungnn.hanu@gmail.com</t>
-  </si>
-  <si>
-    <t>0968864522</t>
-  </si>
-  <si>
-    <t>NGUYỄN NGỌC HƯNG</t>
-  </si>
-  <si>
-    <t>08/08/1994</t>
-  </si>
-  <si>
-    <t>02/10/2010</t>
-  </si>
-  <si>
-    <t>TP BẮC GIANG</t>
-  </si>
-  <si>
-    <t>TRẠI QUÂN, ĐỒNG KỲ, YÊN THẾ, BẮC GIANG</t>
-  </si>
-  <si>
-    <t>ĐỒNG KỲ, YÊN THẾ, BẮC GIANG</t>
-  </si>
-  <si>
-    <t>122115255</t>
-  </si>
-  <si>
-    <t>hungnn30_cccd_mt.jpg</t>
-  </si>
-  <si>
-    <t>nnhung1995tb@gmail.com</t>
-  </si>
-  <si>
-    <t>0908235382</t>
-  </si>
-  <si>
-    <t>NGUYỄN NGỌC HÙNG</t>
-  </si>
-  <si>
-    <t>01/11/1995</t>
-  </si>
-  <si>
-    <t>28/02/2017</t>
-  </si>
-  <si>
-    <t>TRẦN LÃM, THÀNH PHỐ THÁI BÌNH, THÁI BÌNH</t>
-  </si>
-  <si>
-    <t>034095003667</t>
   </si>
   <si>
     <t>bahd_cmt_mt.JPEG</t>
@@ -1867,7 +1867,7 @@
         <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
@@ -1921,7 +1921,7 @@
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
         <v>31</v>
@@ -1930,7 +1930,7 @@
         <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1984,7 +1984,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s">
         <v>20</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -2010,25 +2010,25 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>63</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>64</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>65</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>67</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
@@ -2038,54 +2038,54 @@
         <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
         <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="s">
-        <v>79</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
@@ -2098,108 +2098,108 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
         <v>84</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>85</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="s">
-        <v>90</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
         <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="s">
-        <v>99</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
@@ -2212,24 +2212,24 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -2238,25 +2238,25 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
         <v>103</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>105</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
       <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>107</v>
-      </c>
-      <c r="M9" t="s">
-        <v>108</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
@@ -2266,27 +2266,27 @@
         <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
         <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2295,55 +2295,55 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
         <v>112</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>113</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>114</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>115</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>116</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>117</v>
-      </c>
-      <c r="M10" t="s">
-        <v>118</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
@@ -2352,41 +2352,41 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
         <v>122</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
       </c>
       <c r="J11" t="s">
         <v>53</v>
       </c>
       <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="s">
         <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" t="s">
-        <v>126</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2434,16 +2434,16 @@
         <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2463,7 +2463,7 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>139</v>
@@ -2488,16 +2488,16 @@
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
         <v>34</v>
@@ -2545,19 +2545,19 @@
       </c>
       <c r="N14"/>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>157</v>
@@ -2589,7 +2589,7 @@
         <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
         <v>160</v>
@@ -2611,7 +2611,7 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s">
         <v>34</v>
@@ -2634,7 +2634,7 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>166</v>
@@ -2646,7 +2646,7 @@
         <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
         <v>169</v>
@@ -2665,13 +2665,13 @@
         <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -2691,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -2725,10 +2725,10 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -2782,10 +2782,10 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -2836,10 +2836,10 @@
         <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s">
         <v>20</v>
@@ -2890,7 +2890,7 @@
         <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" t="s">
         <v>31</v>
@@ -2899,7 +2899,7 @@
         <v>45</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2919,7 +2919,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>210</v>
@@ -2931,7 +2931,7 @@
         <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
         <v>213</v>
@@ -2944,19 +2944,19 @@
       </c>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -3004,7 +3004,7 @@
         <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
         <v>31</v>
@@ -3013,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -3033,7 +3033,7 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>227</v>
@@ -3045,7 +3045,7 @@
         <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s">
         <v>230</v>
@@ -3061,16 +3061,16 @@
         <v>31</v>
       </c>
       <c r="P23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
         <v>45</v>
       </c>
       <c r="S23" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -3090,7 +3090,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>236</v>
@@ -3102,7 +3102,7 @@
         <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s">
         <v>239</v>
@@ -3124,10 +3124,10 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -3147,7 +3147,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
         <v>245</v>
@@ -3159,7 +3159,7 @@
         <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s">
         <v>248</v>
@@ -3178,13 +3178,13 @@
         <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -3204,7 +3204,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>254</v>
@@ -3229,19 +3229,19 @@
       </c>
       <c r="N26"/>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -3318,7 +3318,7 @@
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
         <v>272</v>
@@ -3349,13 +3349,13 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R28" t="s">
         <v>45</v>
       </c>
       <c r="S28" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -3375,7 +3375,7 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
         <v>280</v>
@@ -3387,7 +3387,7 @@
         <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s">
         <v>283</v>
@@ -3409,10 +3409,10 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -3466,7 +3466,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
         <v>34</v>
@@ -3501,7 +3501,7 @@
         <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s">
         <v>300</v>
@@ -3517,16 +3517,16 @@
         <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" t="s">
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -3577,7 +3577,7 @@
         <v>32</v>
       </c>
       <c r="Q32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R32" t="s">
         <v>45</v>
@@ -3603,7 +3603,7 @@
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
         <v>315</v>
@@ -3631,16 +3631,16 @@
         <v>31</v>
       </c>
       <c r="P33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R33" t="s">
         <v>45</v>
       </c>
       <c r="S33" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -3672,7 +3672,7 @@
         <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s">
         <v>326</v>
@@ -3691,13 +3691,13 @@
         <v>32</v>
       </c>
       <c r="Q34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="S34" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3729,7 +3729,7 @@
         <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K35" t="s">
         <v>335</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="N35"/>
       <c r="O35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" t="s">
         <v>31</v>
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
       <c r="R35" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s">
         <v>20</v>
@@ -3774,7 +3774,7 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
         <v>340</v>
@@ -3805,10 +3805,10 @@
         <v>31</v>
       </c>
       <c r="Q36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s">
         <v>20</v>
@@ -3859,16 +3859,16 @@
         <v>31</v>
       </c>
       <c r="P37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q37" t="s">
         <v>31</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="S37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -3916,16 +3916,16 @@
         <v>32</v>
       </c>
       <c r="P38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="s">
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -3957,7 +3957,7 @@
         <v>369</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s">
         <v>370</v>
@@ -3976,10 +3976,10 @@
         <v>31</v>
       </c>
       <c r="Q39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s">
         <v>20</v>
@@ -4002,7 +4002,7 @@
         <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
         <v>376</v>
@@ -4036,7 +4036,7 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s">
         <v>34</v>
@@ -4059,7 +4059,7 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
         <v>385</v>
@@ -4087,16 +4087,16 @@
         <v>31</v>
       </c>
       <c r="P41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q41" t="s">
         <v>31</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S41" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -4116,7 +4116,7 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s">
         <v>393</v>
@@ -4147,13 +4147,13 @@
         <v>32</v>
       </c>
       <c r="Q42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R42" t="s">
         <v>45</v>
       </c>
       <c r="S42" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -4204,7 +4204,7 @@
         <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R43" t="s">
         <v>45</v>
@@ -4255,19 +4255,19 @@
       </c>
       <c r="N44"/>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -4287,7 +4287,7 @@
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
         <v>421</v>
@@ -4321,10 +4321,10 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -4356,7 +4356,7 @@
         <v>432</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s">
         <v>433</v>
@@ -4375,10 +4375,10 @@
         <v>31</v>
       </c>
       <c r="Q46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s">
         <v>20</v>
@@ -4435,10 +4435,10 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -4470,7 +4470,7 @@
         <v>450</v>
       </c>
       <c r="J48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s">
         <v>451</v>
@@ -4486,16 +4486,16 @@
         <v>32</v>
       </c>
       <c r="P48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q48" t="s">
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -4527,7 +4527,7 @@
         <v>459</v>
       </c>
       <c r="J49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s">
         <v>460</v>
@@ -4546,13 +4546,13 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R49" t="s">
         <v>45</v>
       </c>
       <c r="S49" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -4603,13 +4603,13 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="S50" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
@@ -4641,7 +4641,7 @@
         <v>477</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K51" t="s">
         <v>478</v>
@@ -4657,16 +4657,16 @@
         <v>32</v>
       </c>
       <c r="P51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q51" t="s">
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -4714,7 +4714,7 @@
         <v>31</v>
       </c>
       <c r="P52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q52" t="s">
         <v>31</v>
@@ -4723,7 +4723,7 @@
         <v>45</v>
       </c>
       <c r="S52" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -4743,7 +4743,7 @@
         <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
         <v>492</v>
@@ -4755,7 +4755,7 @@
         <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s">
         <v>495</v>
@@ -4774,13 +4774,13 @@
         <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="S53" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -4800,7 +4800,7 @@
         <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
         <v>500</v>
@@ -4812,7 +4812,7 @@
         <v>502</v>
       </c>
       <c r="J54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s">
         <v>503</v>
@@ -4828,7 +4828,7 @@
         <v>31</v>
       </c>
       <c r="P54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q54" t="s">
         <v>31</v>
@@ -4837,7 +4837,7 @@
         <v>45</v>
       </c>
       <c r="S54" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -4885,16 +4885,16 @@
         <v>31</v>
       </c>
       <c r="P55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q55" t="s">
         <v>31</v>
       </c>
       <c r="R55" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="S55" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -4942,7 +4942,7 @@
         <v>31</v>
       </c>
       <c r="P56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q56" t="s">
         <v>31</v>
@@ -4951,7 +4951,7 @@
         <v>45</v>
       </c>
       <c r="S56" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -4996,19 +4996,19 @@
       </c>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
@@ -5028,7 +5028,7 @@
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G58" t="s">
         <v>534</v>
@@ -5053,19 +5053,19 @@
       </c>
       <c r="N58"/>
       <c r="O58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R58" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S58" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -5097,7 +5097,7 @@
         <v>544</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s">
         <v>545</v>
@@ -5110,19 +5110,19 @@
       </c>
       <c r="N59"/>
       <c r="O59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -5142,7 +5142,7 @@
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
         <v>551</v>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="N60"/>
       <c r="O60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P60" t="s">
         <v>32</v>
@@ -5176,7 +5176,7 @@
         <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="S60" t="s">
         <v>34</v>
@@ -5199,7 +5199,7 @@
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
         <v>560</v>
